--- a/data/bp_rcv.xlsx
+++ b/data/bp_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8493704979642969</v>
+        <v>0.8569752827817343</v>
       </c>
       <c r="D2">
-        <v>0.8413481663481663</v>
+        <v>0.02040235051356787</v>
       </c>
       <c r="E2">
-        <v>0.827593278972078</v>
+        <v>0.8407979407979408</v>
       </c>
       <c r="F2">
-        <v>0.813953488372093</v>
+        <v>0.02396534764999987</v>
       </c>
       <c r="G2">
-        <v>0.8238271035225349</v>
+        <v>0.8304215363100589</v>
+      </c>
+      <c r="H2">
+        <v>0.02730114188011467</v>
+      </c>
+      <c r="I2">
+        <v>0.8165092054263565</v>
+      </c>
+      <c r="J2">
+        <v>0.04698609276682866</v>
+      </c>
+      <c r="K2">
+        <v>0.8277983920841064</v>
+      </c>
+      <c r="L2">
+        <v>0.03821836381816607</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8409708737864078</v>
+        <v>0.8453330540427315</v>
       </c>
       <c r="D3">
-        <v>0.8366366366366366</v>
+        <v>0.02226636598904934</v>
       </c>
       <c r="E3">
-        <v>0.8360291574005435</v>
+        <v>0.8279279279279279</v>
       </c>
       <c r="F3">
-        <v>0.8271317829457365</v>
+        <v>0.03238048814100637</v>
       </c>
       <c r="G3">
-        <v>0.8339024765420705</v>
+        <v>0.8106482868844271</v>
+      </c>
+      <c r="H3">
+        <v>0.02789325696747806</v>
+      </c>
+      <c r="I3">
+        <v>0.7963117732558139</v>
+      </c>
+      <c r="J3">
+        <v>0.05198510947394241</v>
+      </c>
+      <c r="K3">
+        <v>0.8095444238301381</v>
+      </c>
+      <c r="L3">
+        <v>0.04081626926861007</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.869426871280927</v>
+        <v>0.8925722664432341</v>
       </c>
       <c r="D4">
-        <v>0.8710414960414961</v>
+        <v>0.02233268711618139</v>
       </c>
       <c r="E4">
-        <v>0.862782307882382</v>
+        <v>0.8868404118404118</v>
       </c>
       <c r="F4">
-        <v>0.8829457364341085</v>
+        <v>0.02060136985134997</v>
       </c>
       <c r="G4">
-        <v>0.8491155206891247</v>
+        <v>0.888332833882729</v>
+      </c>
+      <c r="H4">
+        <v>0.02181979368469639</v>
+      </c>
+      <c r="I4">
+        <v>0.8833999515503876</v>
+      </c>
+      <c r="J4">
+        <v>0.02206614330032326</v>
+      </c>
+      <c r="K4">
+        <v>0.8581735724592867</v>
+      </c>
+      <c r="L4">
+        <v>0.02988061301590509</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7588662699655497</v>
+        <v>0.7838542103058231</v>
       </c>
       <c r="D5">
-        <v>0.7697561197561197</v>
+        <v>0.04244395587088937</v>
       </c>
       <c r="E5">
-        <v>0.7480454657771188</v>
+        <v>0.7981016731016732</v>
       </c>
       <c r="F5">
-        <v>0.7333333333333334</v>
+        <v>0.0316331609890594</v>
       </c>
       <c r="G5">
-        <v>0.7347690098959134</v>
+        <v>0.7738287883328339</v>
+      </c>
+      <c r="H5">
+        <v>0.03758951121426484</v>
+      </c>
+      <c r="I5">
+        <v>0.779251453488372</v>
+      </c>
+      <c r="J5">
+        <v>0.0527492860491276</v>
+      </c>
+      <c r="K5">
+        <v>0.7487012987012986</v>
+      </c>
+      <c r="L5">
+        <v>0.04775212846402369</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8842801962626579</v>
+        <v>0.8919145370758275</v>
       </c>
       <c r="D6">
-        <v>0.8838907088907091</v>
+        <v>0.0219666514902566</v>
       </c>
       <c r="E6">
-        <v>0.8796590066716086</v>
+        <v>0.8847812097812098</v>
       </c>
       <c r="F6">
-        <v>0.8697674418604651</v>
+        <v>0.02307479082431547</v>
       </c>
       <c r="G6">
-        <v>0.8865610418909912</v>
+        <v>0.8827240035960443</v>
+      </c>
+      <c r="H6">
+        <v>0.01954645038142135</v>
+      </c>
+      <c r="I6">
+        <v>0.8818616763565892</v>
+      </c>
+      <c r="J6">
+        <v>0.04288578487513406</v>
+      </c>
+      <c r="K6">
+        <v>0.9026592455163884</v>
+      </c>
+      <c r="L6">
+        <v>0.0310281674216055</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8739304729094893</v>
+        <v>0.8724842899036448</v>
       </c>
       <c r="D7">
-        <v>0.8575598325598325</v>
+        <v>0.02650603053825204</v>
       </c>
       <c r="E7">
-        <v>0.8501062515443539</v>
+        <v>0.8611141753998897</v>
       </c>
       <c r="F7">
-        <v>0.8713178294573642</v>
+        <v>0.02841045785277064</v>
       </c>
       <c r="G7">
-        <v>0.876454904373686</v>
+        <v>0.8558485665767657</v>
+      </c>
+      <c r="H7">
+        <v>0.02654332386504935</v>
+      </c>
+      <c r="I7">
+        <v>0.853875968992248</v>
+      </c>
+      <c r="J7">
+        <v>0.04079864627162615</v>
+      </c>
+      <c r="K7">
+        <v>0.8460214388785818</v>
+      </c>
+      <c r="L7">
+        <v>0.04003138132180345</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.5688944566238647</v>
+        <v>0.8718516966904064</v>
       </c>
       <c r="D8">
-        <v>0.6975975975975977</v>
+        <v>0.02155964354370622</v>
       </c>
       <c r="E8">
-        <v>0.6876155176674079</v>
+        <v>0.8678801250229821</v>
       </c>
       <c r="F8">
-        <v>0.6193798449612402</v>
+        <v>0.03236166552384019</v>
       </c>
       <c r="G8">
-        <v>0.5991796133928113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8648794237394301</v>
-      </c>
-      <c r="D9">
-        <v>0.8643006643006643</v>
-      </c>
-      <c r="E9">
-        <v>0.8472868791697554</v>
-      </c>
-      <c r="F9">
-        <v>0.8503875968992249</v>
-      </c>
-      <c r="G9">
-        <v>0.8471107009178075</v>
+        <v>0.8608280891019879</v>
+      </c>
+      <c r="H8">
+        <v>0.02691800836013376</v>
+      </c>
+      <c r="I8">
+        <v>0.8554324127906977</v>
+      </c>
+      <c r="J8">
+        <v>0.03482333217432464</v>
+      </c>
+      <c r="K8">
+        <v>0.8561533704390847</v>
+      </c>
+      <c r="L8">
+        <v>0.04650982689853566</v>
       </c>
     </row>
   </sheetData>
